--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -923,7 +923,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.10.55</t>
+          <t>7.1-5.10.55</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5.10.55</t>
+          <t>7.2-5.10.55</t>
         </is>
       </c>
     </row>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -468,12 +468,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -490,12 +490,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -512,12 +512,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -534,12 +534,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -556,12 +556,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -578,12 +578,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -600,12 +600,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -622,139 +622,139 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -764,19 +764,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -786,24 +786,24 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -842,39 +842,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -886,73 +886,73 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>epyc7002</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.1-5.10.55</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>epyc7002</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.2-5.10.55</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -974,7 +974,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1018,7 +1018,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1028,19 +1028,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1050,68 +1050,68 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1128,12 +1128,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1150,61 +1150,61 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>DS224+</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1216,56 +1216,56 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1282,12 +1282,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1304,12 +1304,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1326,12 +1326,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS3615xs</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>bromolow</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>3.10.105</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS3615xs</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>bromolow</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1363,19 +1363,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>3.10.108</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS3615xs</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>bromolow</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1385,68 +1385,68 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>3.10.108</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>3.10.105</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1458,56 +1458,56 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1524,12 +1524,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1546,183 +1546,183 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DS224+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1732,51 +1732,51 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1788,29 +1788,29 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1820,29 +1820,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1854,83 +1854,83 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1942,29 +1942,29 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1974,29 +1974,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2008,29 +2008,29 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2040,90 +2040,90 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2140,12 +2140,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2162,12 +2162,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2184,12 +2184,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2206,12 +2206,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2228,12 +2228,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2250,17 +2250,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>broadwellnkv2</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2272,29 +2272,29 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>broadwellnkv2</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2304,51 +2304,51 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2360,83 +2360,83 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2448,144 +2448,144 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>broadwellnkv2</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>broadwellnkv2</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RS3413xs+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bromolow</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3.10.105</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RS3413xs+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bromolow</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.10.108</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RS3413xs+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bromolow</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3.10.108</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2602,12 +2602,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2624,12 +2624,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2646,12 +2646,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2668,56 +2668,56 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2734,12 +2734,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2756,51 +2756,51 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS3413xs+</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>bromolow</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>3.10.105</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS3413xs+</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>bromolow</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>3.10.108</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DS3615xs</t>
+          <t>RS3413xs+</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2810,332 +2810,332 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3.10.105</t>
+          <t>3.10.108</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DS3615xs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>bromolow</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3.10.108</t>
+          <t>3.10.105</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DS3615xs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>bromolow</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3.10.108</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>3.10.105</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3152,12 +3152,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3174,100 +3174,100 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwellnkv2</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwellnkv2</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.59</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3284,12 +3284,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3306,56 +3306,56 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>broadwellnkv2</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>3.10.105</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>broadwellnkv2</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>epyc7002</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3365,19 +3365,19 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>7.1-5.10.55</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>epyc7002</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>7.2-5.10.55</t>
         </is>
       </c>
     </row>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -500,34 +500,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
@@ -544,12 +544,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
@@ -566,24 +566,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -600,12 +600,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -622,17 +622,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -644,22 +644,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
@@ -676,24 +676,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -710,12 +710,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -754,39 +754,39 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -798,100 +798,100 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -908,12 +908,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -930,39 +930,39 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -974,34 +974,34 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS224+</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1018,17 +1018,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1040,56 +1040,56 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1128,12 +1128,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1150,83 +1150,83 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DS224+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1238,56 +1238,56 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1304,12 +1304,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1326,105 +1326,105 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DS3615xs</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bromolow</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.10.105</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DS3615xs</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bromolow</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.10.108</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DS3615xs</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bromolow</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.10.108</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.10.105</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1436,83 +1436,83 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>broadwell</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1524,51 +1524,51 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>apollolake</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1578,68 +1578,68 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>geminilake</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>r1000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1678,7 +1678,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1688,19 +1688,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1710,29 +1710,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1744,127 +1744,127 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>denverton</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1876,56 +1876,56 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>apollolake</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1942,12 +1942,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1964,12 +1964,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1986,17 +1986,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2008,127 +2008,127 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>r1000</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>purley</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>geminilake</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2140,61 +2140,61 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2206,51 +2206,51 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>denverton</t>
+          <t>v1000</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2260,29 +2260,29 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2294,56 +2294,56 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>broadwell</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2382,12 +2382,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2404,39 +2404,39 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2448,100 +2448,100 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>purley</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwellnk</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwellnkv2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2558,12 +2558,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwellnkv2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2580,7 +2580,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2590,19 +2590,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4.4.59</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2624,7 +2624,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2634,758 +2634,98 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>broadwellnk</t>
+          <t>broadwellnkv2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>4.4.180</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>broadwellnkv2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4.4.180</t>
+          <t>4.4.302</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>epyc7002</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4.4.302</t>
+          <t>7.1-5.10.55</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>v1000</t>
+          <t>epyc7002</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>RS2423RP+</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>v1000</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>4.4.302</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>RS3413xs+</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>bromolow</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>3.10.105</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>RS3413xs+</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>bromolow</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>3.10.108</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>RS3413xs+</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>bromolow</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>3.10.108</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>RS3618xs</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>broadwell</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>3.10.105</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>RS3618xs</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>broadwell</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>RS3618xs</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>broadwell</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>RS3618xs</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>broadwell</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>4.4.302</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>RS3621xs+</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>4.4.59</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>RS3621xs+</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>RS3621xs+</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>RS3621xs+</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>4.4.302</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>RS4021xs+</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>4.4.59</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>RS4021xs+</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>RS4021xs+</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>RS4021xs+</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>4.4.302</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>SA3400</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>4.4.59</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>SA3400</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>SA3400</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>SA3400</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>4.4.302</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>SA3410</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>broadwellnkv2</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>SA3410</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>broadwellnkv2</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>4.4.302</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>SA3600</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>4.4.59</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>SA3600</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>SA3600</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>SA3600</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>broadwellnk</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>4.4.302</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>SA3610</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>broadwellnkv2</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>4.4.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>SA3610</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>broadwellnkv2</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>4.4.302</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>SA6400</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>epyc7002</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>7.1-5.10.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>SA6400</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>epyc7002</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
         <is>
           <t>7.2-5.10.55</t>
         </is>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'7.1': '4.4.180', '7.2': '4.4.302'}</t>
+          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302'}</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['DS1019+', 'DS620slim', 'DS218+', 'DS418play', 'DS718+', 'DS918+']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['FS3400', 'RS3618xs', 'DS3617xs', 'DS3617xsII', 'FS2017', 'RS18017xs+', 'RS3617RPxs', 'RS3617xs+', 'RS4017xs+']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['DS1621xs+', 'DS3622xs+', 'FS3600', 'RS1619xs+', 'RS3621RPxs', 'RS3621xs+', 'RS4021xs+', 'SA3400', 'SA3600', 'DS3018xs', 'FS1018']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['FS3410', 'SA3410', 'SA3610']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['SA3200D', 'SA3400D']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['DS1819+', 'DS2419+', 'DS2419+II', 'DVA3219', 'DVA3221', 'RS820+', 'RS820RP+', 'DS1618+', 'RS2418+', 'RS2418RP+', 'RS2818RP+']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['DS1520+', 'DS220+', 'DS224+', 'DS420+', 'DS423+', 'DS720+', 'DS920+', 'DVA1622']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['FS6400', 'HD6500']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['DS1522+', 'DS723+', 'DS923+', 'RS422+']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['DS1621+', 'DS1821+', 'DS1823xs+', 'DS2422+', 'FS2500', 'RS1221+', 'RS1221RP+', 'RS2421+', 'RS2421RP+', 'RS2423+', 'RS2423RP+', 'RS2821RP+', 'RS822+', 'RS822RP+']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['SA6400']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['DS1019+', 'DS620slim', 'DS218+', 'DS418play', 'DS718+', 'DS918+']</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['FS3400', 'RS3618xs', 'DS3617xs', 'DS3617xsII', 'FS2017', 'RS18017xs+', 'RS3617RPxs', 'RS3617xs+', 'RS4017xs+']</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['DS1621xs+', 'DS3622xs+', 'FS3600', 'RS1619xs+', 'RS3621RPxs', 'RS3621xs+', 'RS4021xs+', 'SA3400', 'SA3600', 'DS3018xs', 'FS1018']</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['FS3410', 'SA3410', 'SA3610']</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['SA3200D', 'SA3400D']</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['DS1819+', 'DS2419+', 'DS2419+II', 'DVA3219', 'DVA3221', 'RS820+', 'RS820RP+', 'DS1618+', 'RS2418+', 'RS2418RP+', 'RS2818RP+']</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['DS1520+', 'DS220+', 'DS224+', 'DS420+', 'DS423+', 'DS720+', 'DS920+', 'DVA1622']</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['FS6400', 'HD6500']</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['DS1522+', 'DS723+', 'DS923+', 'RS422+']</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['DS1621+', 'DS1821+', 'DS1823xs+', 'DS2422+', 'FS2500', 'RS1221+', 'RS1221RP+', 'RS2421+', 'RS2421RP+', 'RS2423+', 'RS2423RP+', 'RS2821RP+', 'RS822+', 'RS822RP+']</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['SA6400']</t>
         </is>
       </c>
     </row>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['FS6400', 'HD6500']</t>
+          <t>['HD6500', 'FS6400']</t>
         </is>
       </c>
     </row>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,15 +611,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>v1000nk</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55'}</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['DS925+']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>epyc7002</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55'}</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>['SA6400']</t>
         </is>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['DS925+']</t>
+          <t>['DS1525+', 'DS925+']</t>
         </is>
       </c>
     </row>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['DS1525+', 'DS925+']</t>
+          <t>['DS1525+', 'DS1825+', 'DS925+', 'RS2825RP+']</t>
         </is>
       </c>
     </row>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>v1000nk</t>
+          <t>epyc7002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -621,14 +621,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['DS1525+', 'DS1825+', 'DS925+', 'RS2825RP+']</t>
+          <t>['SA6400']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>epyc7002</t>
+          <t>geminilakenk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -638,7 +638,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['SA6400']</t>
+          <t>['DS425+']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>r1000nk</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55'}</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['DS725+']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>v1000nk</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55'}</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['DS1525+', 'DS1825+', 'DS925+', 'RS2825RP+']</t>
         </is>
       </c>
     </row>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -638,7 +638,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['DS425+']</t>
+          <t>['DS225+', 'DS425+']</t>
         </is>
       </c>
     </row>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302'}</t>
+          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302', '7.3': '4.4.302'}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302'}</t>
+          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302', '7.3': '4.4.302'}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302'}</t>
+          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302', '7.3': '4.4.302'}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302'}</t>
+          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302', '7.3': '4.4.302'}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302'}</t>
+          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302', '7.3': '4.4.302'}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302'}</t>
+          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302', '7.3': '4.4.302'}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302'}</t>
+          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302', '7.3': '4.4.302'}</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302'}</t>
+          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302', '7.3': '4.4.302'}</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302'}</t>
+          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302', '7.3': '4.4.302'}</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302'}</t>
+          <t>{'7.0': '4.4.180', '7.1': '4.4.180', '7.2': '4.4.302', '7.3': '4.4.302'}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55'}</t>
+          <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55', '7.3': '7.3-5.10.55'}</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55'}</t>
+          <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55', '7.3': '7.3-5.10.55'}</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55'}</t>
+          <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55', '7.3': '7.3-5.10.55'}</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55'}</t>
+          <t>{'7.1': '7.1-5.10.55', '7.2': '7.2-5.10.55', '7.3': '7.3-5.10.55'}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['HD6500', 'FS6400']</t>
+          <t>['FS6400', 'HD6500']</t>
         </is>
       </c>
     </row>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -672,7 +672,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['DS1525+', 'DS1825+', 'DS925+', 'RS2825RP+']</t>
+          <t>['DS1525+', 'DS1825+', 'DS925+', 'RS2423RP+II', 'RS2825RP+']</t>
         </is>
       </c>
     </row>
